--- a/runs/2-ner_train-summary-ptlm3.xlsx
+++ b/runs/2-ner_train-summary-ptlm3.xlsx
@@ -569,23 +569,23 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="8.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="6.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="7.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="5" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="5" width="7.85"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="13" style="1" width="9.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1024" style="6" width="9.14"/>
   </cols>
